--- a/biology/Botanique/Saxifraga_hirsuta/Saxifraga_hirsuta.xlsx
+++ b/biology/Botanique/Saxifraga_hirsuta/Saxifraga_hirsuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga hirsuta, la Saxifrage hérissée, saxifrage hirsute ou faux désespoir-des-peintres, est une espèce de plante herbacée vivace de la famille des Saxifragacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur 10 à 40 cm, tige frêle sans feuilles, celles-ci forment une rosette radicale, sont dentées, pourvues d'un long pétiole hérissé de poils blancs. Les fleurs blanches sont groupées en panicule, les sépales sont réfléchis vers la tige, les cinq pétales blancs sont ponctués de jaune et de rouge, les dix étamines aussi longues que les pétales. Floraison de juin à aout.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-bois et rochers ombragés, sur un sol un peu humide, de 600 à 1 800 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-bois et rochers ombragés, sur un sol un peu humide, de 600 à 1 800 m.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Portugal, Espagne, Irlande ; en France : Pyrénées occidentales jusqu'à l'Ariège. Subspontané dans les Vosges et l'Europe centrale.
 </t>
